--- a/data/approval.xlsx
+++ b/data/approval.xlsx
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -485,10 +485,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/approval.xlsx
+++ b/data/approval.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>project0</t>
+  </si>
+  <si>
+    <t>project1</t>
+  </si>
+  <si>
+    <t>project2</t>
+  </si>
+  <si>
+    <t>project3</t>
+  </si>
+  <si>
+    <t>project4</t>
+  </si>
+  <si>
+    <t>project5</t>
+  </si>
+  <si>
+    <t>approval</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>utility sum</t>
+  </si>
+  <si>
+    <t>utility ratio</t>
+  </si>
+  <si>
+    <t>cumulative sum</t>
+  </si>
+  <si>
+    <t>cumulative ratio</t>
+  </si>
+  <si>
+    <t>knapsack</t>
+  </si>
+  <si>
+    <t>knapsack ratio</t>
+  </si>
+  <si>
+    <t>default borda</t>
+  </si>
+  <si>
+    <t>default borda truncated</t>
+  </si>
+  <si>
+    <t>dowdall system borda</t>
+  </si>
+  <si>
+    <t>dowdall system borda truncated</t>
+  </si>
+  <si>
+    <t>eurovision song contest borda</t>
+  </si>
+  <si>
+    <t>eurovision song contest borda truncated</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +114,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,143 +430,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>project0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>project1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>project3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>approval</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>threshold</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>utility sum</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>utility ratio</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -566,48 +549,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>cumulative sum</t>
-        </is>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>cumulative ratio</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -616,48 +595,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>knapsack</t>
-        </is>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>knapsack ratio</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -666,157 +641,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>default borda</t>
-        </is>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>default borda truncated</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>dowdall system borda</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>dowdall system borda truncated</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>eurovision song contest borda</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>eurovision song contest borda truncated</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/approval.xlsx
+++ b/data/approval.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -497,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -511,19 +511,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -534,19 +534,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -580,19 +580,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -603,19 +603,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -626,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -649,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -718,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -764,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/approval.xlsx
+++ b/data/approval.xlsx
@@ -462,22 +462,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,13 +485,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -508,22 +508,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,22 +531,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,22 +554,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,22 +577,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,13 +600,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -646,13 +646,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -692,22 +692,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -715,13 +715,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -761,13 +761,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
